--- a/Arbeitsverlauf/Dokumentation Arbeitsverlauf Janina Hosch.xlsx
+++ b/Arbeitsverlauf/Dokumentation Arbeitsverlauf Janina Hosch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832E6A74-F0C3-4A2B-9896-7C64B2B563C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E22BD-E536-46D1-B1F3-9B247903653A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>1.</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Lernfeld</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,9 +453,11 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/Arbeitsverlauf/Dokumentation Arbeitsverlauf Janina Hosch.xlsx
+++ b/Arbeitsverlauf/Dokumentation Arbeitsverlauf Janina Hosch.xlsx
@@ -3,24 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E22BD-E536-46D1-B1F3-9B247903653A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB974285-CC7F-4C49-A2BD-FF186C21FD37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mo, 02.03.2020" sheetId="6" r:id="rId1"/>
+    <sheet name="Mo, 02.03.2020" sheetId="8" r:id="rId1"/>
+    <sheet name="Di, 03.03.2020" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>1.</t>
   </si>
@@ -70,7 +78,16 @@
     <t>Lernfeld</t>
   </si>
   <si>
-    <t>-</t>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Einarbeitung in das bereits bestehende Projekt: Requirements, Projektstruktur, Architektur</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Pflichtenheft-Struktur besteht, einige Anforderungen sind bereits beschrieben</t>
   </si>
 </sst>
 </file>
@@ -114,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -132,6 +149,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,11 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BF081-D2C7-4C42-897B-02772E17735A}">
-  <dimension ref="B1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4531F262-D706-4BDF-A55A-3ACA28D63712}">
+  <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,65 +474,225 @@
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="4">
+    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BF081-D2C7-4C42-897B-02772E17735A}">
+  <dimension ref="B1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEFB9E8-A7F4-4F02-8C82-B96E445D7B85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Arbeitsverlauf/Dokumentation Arbeitsverlauf Janina Hosch.xlsx
+++ b/Arbeitsverlauf/Dokumentation Arbeitsverlauf Janina Hosch.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB974285-CC7F-4C49-A2BD-FF186C21FD37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE00EC80-0323-44E2-B7C5-6A9F52C5C2FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mo, 02.03.2020" sheetId="8" r:id="rId1"/>
-    <sheet name="Di, 03.03.2020" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Di, 03.03.2020" sheetId="9" r:id="rId2"/>
+    <sheet name="Mi, 04.03.2020" sheetId="6" r:id="rId3"/>
+    <sheet name="Do, 05.03.2020" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>1.</t>
   </si>
@@ -88,6 +90,45 @@
   </si>
   <si>
     <t>Pflichtenheft-Struktur besteht, einige Anforderungen sind bereits beschrieben</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Festlegung der Anwendungsfälle</t>
+  </si>
+  <si>
+    <t>Recherche und Testing zu PHP Zugriff auf SQL</t>
+  </si>
+  <si>
+    <t>Erreichte Progression, gegenüber dem Vortag (Was wurde neu entwickelt, das gestern noch nicht vorhanden war)</t>
+  </si>
+  <si>
+    <t>Konzept fertig gestellt</t>
+  </si>
+  <si>
+    <t>Verbindung von PHP zu SQL</t>
+  </si>
+  <si>
+    <t>PHP Syntax unbekannt</t>
+  </si>
+  <si>
+    <t>Erweiterung des Pflichtenheftes</t>
+  </si>
+  <si>
+    <t>Qualitätsanforderungen festgelegt</t>
+  </si>
+  <si>
+    <t>Qualitätsanforderungen</t>
+  </si>
+  <si>
+    <t>XAMPP Zugriff getestet, auf bplaced.net umgestiegen</t>
+  </si>
+  <si>
+    <t>Zugriff zu XAMPP vom Smartphone war nicht möglich</t>
+  </si>
+  <si>
+    <t>Deployment der API muss aktuell manuell erfolgen (über FTP), Nutzung der Github CI Pipeline?</t>
   </si>
 </sst>
 </file>
@@ -436,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4531F262-D706-4BDF-A55A-3ACA28D63712}">
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,6 +584,11 @@
       </c>
       <c r="D14" s="6"/>
     </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -552,6 +598,11 @@
       </c>
       <c r="D18" s="6"/>
     </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -560,6 +611,11 @@
         <v>11</v>
       </c>
       <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -568,11 +624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BF081-D2C7-4C42-897B-02772E17735A}">
-  <dimension ref="B1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D03640-86A6-4EEC-B940-7E1EBE9FDC9D}">
+  <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,6 +704,9 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="7">
         <v>13</v>
       </c>
@@ -661,6 +720,14 @@
       </c>
       <c r="D14" s="6"/>
     </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7">
+        <v>13</v>
+      </c>
+    </row>
     <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -670,6 +737,11 @@
       </c>
       <c r="D18" s="6"/>
     </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -678,6 +750,11 @@
         <v>11</v>
       </c>
       <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -686,6 +763,401 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BF081-D2C7-4C42-897B-02772E17735A}">
+  <dimension ref="B1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C10527D-7A25-4D39-9AEB-B46599A73DB7}">
+  <dimension ref="B1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEFB9E8-A7F4-4F02-8C82-B96E445D7B85}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Arbeitsverlauf/Dokumentation Arbeitsverlauf Janina Hosch.xlsx
+++ b/Arbeitsverlauf/Dokumentation Arbeitsverlauf Janina Hosch.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE00EC80-0323-44E2-B7C5-6A9F52C5C2FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A1952A-E314-437D-B76F-6B2177435DA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mo, 02.03.2020" sheetId="8" r:id="rId1"/>
     <sheet name="Di, 03.03.2020" sheetId="9" r:id="rId2"/>
     <sheet name="Mi, 04.03.2020" sheetId="6" r:id="rId3"/>
     <sheet name="Do, 05.03.2020" sheetId="10" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Fr, 06.03.2020" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>1.</t>
   </si>
@@ -122,13 +123,22 @@
     <t>Qualitätsanforderungen</t>
   </si>
   <si>
-    <t>XAMPP Zugriff getestet, auf bplaced.net umgestiegen</t>
-  </si>
-  <si>
     <t>Zugriff zu XAMPP vom Smartphone war nicht möglich</t>
   </si>
   <si>
     <t>Deployment der API muss aktuell manuell erfolgen (über FTP), Nutzung der Github CI Pipeline?</t>
+  </si>
+  <si>
+    <t>XAMPP Zugriff gepatcht</t>
+  </si>
+  <si>
+    <t>Implementierung Android App mit Tabellen-View (4h)</t>
+  </si>
+  <si>
+    <t>Testen der API mit Postman</t>
+  </si>
+  <si>
+    <t>App fertig implementieren</t>
   </si>
 </sst>
 </file>
@@ -961,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C10527D-7A25-4D39-9AEB-B46599A73DB7}">
   <dimension ref="B1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,7 +1009,7 @@
     </row>
     <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>13</v>
@@ -1008,7 +1018,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>11</v>
@@ -1034,7 +1044,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
         <v>11</v>
@@ -1080,7 +1090,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7">
         <v>11</v>
@@ -1103,7 +1113,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
         <v>11</v>
@@ -1125,7 +1135,12 @@
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" s="9"/>
@@ -1158,6 +1173,184 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77E039F-0E72-430A-85C0-876967521049}">
+  <dimension ref="B1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEFB9E8-A7F4-4F02-8C82-B96E445D7B85}">
   <dimension ref="A1"/>
   <sheetViews>
